--- a/data/trans_camb/P19C05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-13.08933992486126</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-7.807100626966287</v>
+        <v>-7.807100626966286</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.1809485957515289</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.40537382479397</v>
+        <v>-11.22439568539953</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-19.68536446399395</v>
+        <v>-20.05709950531324</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.4475140792457</v>
+        <v>-15.04205115111729</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.270167581359897</v>
+        <v>-6.53075658934472</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-14.31414755479395</v>
+        <v>-13.70794367529202</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-13.91494306895459</v>
+        <v>-13.98971729795556</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.81941047274629</v>
+        <v>-6.112155892877003</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-14.81645799182732</v>
+        <v>-14.74984788285386</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-12.51012282410733</v>
+        <v>-12.45198697480845</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.59479464420965</v>
+        <v>5.18410566224916</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.548096793089192</v>
+        <v>-6.943532549638287</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.199393465768825</v>
+        <v>-1.784689310980786</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.666241166830747</v>
+        <v>7.182936038124788</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.598083573860164</v>
+        <v>-1.664583871017959</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-3.114341783171631</v>
+        <v>-2.997670972283268</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.802594425256303</v>
+        <v>4.208932723574549</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-6.09263355528801</v>
+        <v>-6.131070654439783</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.930903703911305</v>
+        <v>-3.874685637630163</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.7178456274723023</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.4281570408038298</v>
+        <v>-0.4281570408038297</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.01173913440830987</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4727610780442916</v>
+        <v>-0.4747547169650925</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.861872383855532</v>
+        <v>-0.8550832119368754</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.632018016213427</v>
+        <v>-0.6334044037061879</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4049162680458081</v>
+        <v>-0.3609889440916847</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7155545293606317</v>
+        <v>-0.709861319232173</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6805213015770745</v>
+        <v>-0.6856308029062818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3143845422901635</v>
+        <v>-0.3155695640802928</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7514323784091265</v>
+        <v>-0.7532900350990228</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6194315851669105</v>
+        <v>-0.6121386991867309</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3180560632934159</v>
+        <v>0.3875648706067478</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.4817635177326945</v>
+        <v>-0.4354596358702036</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1321212724058888</v>
+        <v>-0.08579880918009199</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5775432466259561</v>
+        <v>0.6339228770905495</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1206558583091064</v>
+        <v>-0.1050821131868051</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2405867163691269</v>
+        <v>-0.2327172535165202</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2636873393265577</v>
+        <v>0.3165086623867968</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.4131102175089301</v>
+        <v>-0.4455420350399494</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.2732161272688914</v>
+        <v>-0.2738583798174443</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.6087621357947132</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-6.114273852365082</v>
+        <v>-6.114273852365081</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.550755795383769</v>
@@ -869,7 +869,7 @@
         <v>1.389110101366603</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.2410078666854359</v>
+        <v>-0.2410078666854415</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.04431914343779597</v>
@@ -878,7 +878,7 @@
         <v>0.4289695736875349</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-3.131142778842637</v>
+        <v>-3.131142778842635</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.909676008270002</v>
+        <v>-7.262709902139283</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.419553223718248</v>
+        <v>-6.042029500229342</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.3970183182576</v>
+        <v>-10.21612807751937</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.335031471364215</v>
+        <v>-1.832899749583063</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.444054438125804</v>
+        <v>-3.609493759737815</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.30644098407417</v>
+        <v>-4.278849454057827</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.329737195630581</v>
+        <v>-3.586286873779734</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.068309794512571</v>
+        <v>-3.420147299956389</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.056478498931864</v>
+        <v>-6.22236320817034</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.810238534601677</v>
+        <v>2.285674536941466</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.755131635321929</v>
+        <v>4.373054788210441</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.123707855309902</v>
+        <v>-1.612280206895967</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.532209081168051</v>
+        <v>7.918117336472552</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.548637348640277</v>
+        <v>6.133521939417755</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.504213053847774</v>
+        <v>4.002502122015096</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.359530642375709</v>
+        <v>3.564030377298323</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.335220984033064</v>
+        <v>4.006062544030399</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.002632871115318259</v>
+        <v>-0.4446967992347424</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.04281801986845337</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.4300548340608648</v>
+        <v>-0.4300548340608647</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.188807051392595</v>
@@ -974,7 +974,7 @@
         <v>0.1028219882018291</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.01783941244146054</v>
+        <v>-0.01783941244146095</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.003199806897109986</v>
@@ -983,7 +983,7 @@
         <v>0.03097126194377474</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2260660175808455</v>
+        <v>-0.2260660175808454</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4602047318770774</v>
+        <v>-0.4395887818318086</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3255466978490176</v>
+        <v>-0.3535417249282291</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6153990755495597</v>
+        <v>-0.6187506649325072</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.160023186416291</v>
+        <v>-0.1165377467041514</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2377972398620903</v>
+        <v>-0.2325011889602305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2625093040312775</v>
+        <v>-0.2650496207786374</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2216891759386362</v>
+        <v>-0.2376725311644343</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.206030964272218</v>
+        <v>-0.2237607068881868</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3788167077825447</v>
+        <v>-0.3954610088100983</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1524326160106695</v>
+        <v>0.1938105667036029</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4166608992527818</v>
+        <v>0.3728620277083924</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1668462683942056</v>
+        <v>-0.1512754042393802</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6482100944108831</v>
+        <v>0.7051932958088138</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5835964931335902</v>
+        <v>0.5308312325977353</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.310418634539232</v>
+        <v>0.3654127727444077</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.278800334442301</v>
+        <v>0.2884410104784678</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3374478437134208</v>
+        <v>0.3333720920726975</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.001203234824094221</v>
+        <v>-0.03968016976607707</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-13.81333814300807</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-8.876797100135409</v>
+        <v>-8.876797100135406</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.146190685615303</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.992991904031102</v>
+        <v>-2.551162088117438</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.722344202357482</v>
+        <v>-7.486717446126451</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.456005707755699</v>
+        <v>-7.118816277602924</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.066077454536028</v>
+        <v>-7.28020419497012</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-20.05070340823813</v>
+        <v>-19.88278713927036</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-15.18971529246985</v>
+        <v>-14.14560458610381</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.974947032778624</v>
+        <v>-3.442809853708324</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-13.03872680401622</v>
+        <v>-12.81475902391227</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-10.19366731981707</v>
+        <v>-9.785722738282491</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.606261411010685</v>
+        <v>9.794329459590827</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.56794168309439</v>
+        <v>3.586998175836853</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.692357577551256</v>
+        <v>3.064379326925478</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.453104588437627</v>
+        <v>6.561534993003491</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-7.900394786641858</v>
+        <v>-7.738430088263078</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-3.253594244531124</v>
+        <v>-3.094630789246512</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.022623787074637</v>
+        <v>6.095656536766812</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-4.356815703640017</v>
+        <v>-4.480516679093564</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.004956173449535</v>
+        <v>-1.94686499961476</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.5848809952545831</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.3758591781978621</v>
+        <v>-0.375859178197862</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.06056686535463506</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1814601489979666</v>
+        <v>-0.1590620441217548</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4588053744523166</v>
+        <v>-0.4607785726932905</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4466900064472071</v>
+        <v>-0.4282434237048059</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.295504134546185</v>
+        <v>-0.2661353614559323</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7229694838764736</v>
+        <v>-0.7238805261861656</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5326735105085619</v>
+        <v>-0.5132255558394584</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1887289941916962</v>
+        <v>-0.1617759033542075</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5988542550496059</v>
+        <v>-0.5928633737609047</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4644616314932294</v>
+        <v>-0.4494155372810779</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.04991119161403</v>
+        <v>0.9514240664047027</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3625411982635607</v>
+        <v>0.4102988278511777</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.369887109434202</v>
+        <v>0.3128475523606073</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.318776064049049</v>
+        <v>0.3363400127665505</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3664605058041905</v>
+        <v>-0.383491899511486</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.145243361979322</v>
+        <v>-0.1551366230854429</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3754139495094631</v>
+        <v>0.3780421313937388</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2505356273407987</v>
+        <v>-0.2677189215155614</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1207600004098959</v>
+        <v>-0.1195470049335538</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-3.252955104654168</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-4.583664641217207</v>
+        <v>-4.583664641217205</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-5.030901842281457</v>
@@ -1297,7 +1297,7 @@
         <v>-6.094154376216657</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-9.907808761319952</v>
+        <v>-9.907808761319956</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-3.63022031125228</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.353998774299576</v>
+        <v>-8.573640605120659</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.599828286116534</v>
+        <v>-9.465747651864778</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.80268194582748</v>
+        <v>-10.6027727013206</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-11.18726554109794</v>
+        <v>-10.82760530326746</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-12.45754915775493</v>
+        <v>-12.45552348653112</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-15.55823740734947</v>
+        <v>-15.21415626366595</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-8.110616886365293</v>
+        <v>-8.348866113257811</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-9.464222879923772</v>
+        <v>-9.495178930845469</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-11.40903470668179</v>
+        <v>-11.2959497261229</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.598885667075184</v>
+        <v>3.991255468487256</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.687560626674459</v>
+        <v>2.26506234711924</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6694321882436562</v>
+        <v>0.9109602726345354</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.40539547507106</v>
+        <v>1.582309263864412</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.1641333387220505</v>
+        <v>0.2599302836150061</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-5.235436609922624</v>
+        <v>-4.263585129843491</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9806526683655493</v>
+        <v>0.7951499652604943</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.3102386489091471</v>
+        <v>-0.6699428717934146</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-3.670690308579669</v>
+        <v>-3.58846903377191</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1996938960388859</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2813841018066119</v>
+        <v>-0.2813841018066118</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2243871021943009</v>
@@ -1402,7 +1402,7 @@
         <v>-0.2718100419514148</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4419057589960255</v>
+        <v>-0.4419057589960256</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1858965415548457</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4292727107470136</v>
+        <v>-0.4250510749654307</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4454445532625459</v>
+        <v>-0.4718156960916087</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5563514166269249</v>
+        <v>-0.5297655426230004</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.435451729676696</v>
+        <v>-0.4353459738125291</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4920078375769414</v>
+        <v>-0.4825896590399631</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5902020461013978</v>
+        <v>-0.5793463754464445</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3685826665765538</v>
+        <v>-0.3713005109550419</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4193873976369875</v>
+        <v>-0.4325586955080587</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5096037273635661</v>
+        <v>-0.5101107775758342</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2661098153123587</v>
+        <v>0.3128972142833729</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2151196650271191</v>
+        <v>0.1980681916796005</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.04831280183402451</v>
+        <v>0.07511312966466055</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.07522590091345102</v>
+        <v>0.08020865922032959</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0005553933453664069</v>
+        <v>0.01456713968492727</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2593814281381203</v>
+        <v>-0.2180706014081959</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04969463398263961</v>
+        <v>0.05953715731808169</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.01517228578982062</v>
+        <v>-0.03999671269661156</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2169541665355402</v>
+        <v>-0.2040341144077763</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>4.191112393347998</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.968226824705248</v>
+        <v>6.968226824705245</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>6.56080279020402</v>
@@ -1520,7 +1520,7 @@
         <v>5.193009801243842</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.774225794014988</v>
+        <v>4.774225794014983</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.820613861670834</v>
+        <v>2.361742847840151</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.815028492448591</v>
+        <v>-1.683721697394543</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.44359360032508</v>
+        <v>-3.953926438933034</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.198884744165332</v>
+        <v>-3.094027066920674</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.207662401107344</v>
+        <v>-4.211175516922007</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.4055681644208202</v>
+        <v>0.5585471691789269</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.9721579009884341</v>
+        <v>1.94537692149127</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.3269259115986634</v>
+        <v>-0.08535906113591155</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1892777390916585</v>
+        <v>0.9842676965066142</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>16.11903273406969</v>
+        <v>15.88877864267088</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>14.41841176888972</v>
+        <v>14.25531931882049</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.185694953401918</v>
+        <v>6.780658515838065</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.79951375114109</v>
+        <v>11.34264334163316</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.09459529844217</v>
+        <v>12.75861948187443</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.06445213966587</v>
+        <v>13.11959511249797</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.5405182731884</v>
+        <v>12.43035193131346</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>11.25283553198925</v>
+        <v>11.20439336901268</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.504688477659094</v>
+        <v>8.652921177451825</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.3163898025752174</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5260359786263473</v>
+        <v>0.5260359786263472</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.6002445760841735</v>
@@ -1625,7 +1625,7 @@
         <v>0.475105877500646</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4367915374834089</v>
+        <v>0.4367915374834084</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.07305622893739222</v>
+        <v>0.1401869324754795</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1682216680579752</v>
+        <v>-0.1969179814588951</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2929803661098459</v>
+        <v>-0.3382062826301777</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2100989271700387</v>
+        <v>-0.185634103216079</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2764769313475364</v>
+        <v>-0.2589239870350749</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01857515474138581</v>
+        <v>0.02608581873539239</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06666080957817677</v>
+        <v>0.1445630202267013</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.04612422047198059</v>
+        <v>-0.008815118103704486</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.009369997235694151</v>
+        <v>0.07243680003765514</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.938542789345114</v>
+        <v>2.620524461755432</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.44062520886385</v>
+        <v>2.4958892914083</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.283358355640785</v>
+        <v>1.203154661020316</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.109654044773484</v>
+        <v>1.170859481930941</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.178883555906791</v>
+        <v>1.181804788292612</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.465807033825143</v>
+        <v>1.495698921093631</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.347459557292554</v>
+        <v>1.474682686329161</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.246207477268312</v>
+        <v>1.291247761967002</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.006268897695412</v>
+        <v>1.050148164959827</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-12.32525616771684</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-6.572090738225761</v>
+        <v>-6.572090738225758</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>4.706125130250788</v>
@@ -1734,7 +1734,7 @@
         <v>-10.84421364402586</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-5.669089636523998</v>
+        <v>-5.669089636523997</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-15.13297406483312</v>
+        <v>-15.32352381474876</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-19.35029116102637</v>
+        <v>-18.79731817665231</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-13.85790314052794</v>
+        <v>-13.48595835968863</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.513559671637957</v>
+        <v>-2.984440563166905</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-16.23907245995656</v>
+        <v>-15.91703269075772</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-11.55386033520156</v>
+        <v>-10.89394197506539</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-6.338177171208486</v>
+        <v>-6.050556125035845</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-15.04696520686767</v>
+        <v>-15.41103818002504</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-9.815842686432807</v>
+        <v>-10.18407636273607</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-1.373938830262519</v>
+        <v>-1.312483396497844</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-6.268402286001296</v>
+        <v>-5.954217155681095</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.9121766813132034</v>
+        <v>-0.343023800323673</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12.19723299224</v>
+        <v>12.01035583958102</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-3.760053100885579</v>
+        <v>-3.724962589743153</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.4640717295115427</v>
+        <v>0.5428867845633467</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.973420179567766</v>
+        <v>3.531830485845129</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-6.368093571368632</v>
+        <v>-6.50555103742627</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-1.284039906598794</v>
+        <v>-1.44633539347725</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.6336575536827764</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.3378797879003274</v>
+        <v>-0.3378797879003272</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2954386224025287</v>
@@ -1839,7 +1839,7 @@
         <v>-0.6153766792099457</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.3217038753740857</v>
+        <v>-0.3217038753740856</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6238892075117825</v>
+        <v>-0.6243381646706856</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8057113072257219</v>
+        <v>-0.7939161149511066</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5624976167048134</v>
+        <v>-0.5420332742114971</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.142355269533986</v>
+        <v>-0.146821284241256</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.8070630640741534</v>
+        <v>-0.7928159499471099</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5510448764166476</v>
+        <v>-0.5356638780919482</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3148839872007135</v>
+        <v>-0.2961820163840921</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.7412042305894704</v>
+        <v>-0.7467817034689503</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4801570572569382</v>
+        <v>-0.4860763226477761</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.08372223561990644</v>
+        <v>-0.0752255138835521</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.3577983153551649</v>
+        <v>-0.3641432674260631</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.05080548946055771</v>
+        <v>6.017476942199885e-05</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.9235870833324242</v>
+        <v>1.023396123917155</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.2916980610635529</v>
+        <v>-0.2709170089273724</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.05136768659951502</v>
+        <v>0.05023326958502929</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2732865482825226</v>
+        <v>0.2268115365618296</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.4299619607647812</v>
+        <v>-0.4142881295066946</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.08419464964529431</v>
+        <v>-0.103029023087379</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.4649297963415132</v>
+        <v>0.1345361174560075</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-11.56175679620151</v>
+        <v>-11.26511861776185</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.618202583309977</v>
+        <v>-6.869906076732724</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.9494899077300122</v>
+        <v>1.170021994800729</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-10.51026584749357</v>
+        <v>-10.28860667549093</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-6.452446997652849</v>
+        <v>-6.423613454660384</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.888736291560862</v>
+        <v>1.697480893681617</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-9.636201369258028</v>
+        <v>-9.795479623675153</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-5.620812257629041</v>
+        <v>-5.462397130487781</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.544716245213577</v>
+        <v>9.55957043048878</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.648838565518307</v>
+        <v>-2.625820818122516</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.133706817109555</v>
+        <v>1.913918117989475</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.71739445316493</v>
+        <v>10.06170606756314</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-2.578442201831021</v>
+        <v>-2.185360423752131</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.934864104461116</v>
+        <v>0.8727309046705005</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>8.324376376990109</v>
+        <v>8.319378456878971</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-3.492316361177893</v>
+        <v>-3.796668853715019</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.3949498897875435</v>
+        <v>0.3103952968984241</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.02790247462186078</v>
+        <v>0.001455203921712561</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6594700103695466</v>
+        <v>-0.6454990224825868</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3704814323799706</v>
+        <v>-0.3837952610456043</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.04624373386857361</v>
+        <v>0.06703604425936016</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5913678764713094</v>
+        <v>-0.5952639197606188</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3661869634018537</v>
+        <v>-0.3787447377049583</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.109375226947085</v>
+        <v>0.08926545845328078</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5678978569689461</v>
+        <v>-0.5704614429875753</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3274262208378374</v>
+        <v>-0.3257213662243097</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7310068957591962</v>
+        <v>0.738666824499575</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1953048159179784</v>
+        <v>-0.20665944924849</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1747437232813495</v>
+        <v>0.1572203540814599</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8040137629177146</v>
+        <v>0.7862822445408136</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1709813858797025</v>
+        <v>-0.1743541173468738</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.07430145688704974</v>
+        <v>0.06946139711697648</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6057548225001215</v>
+        <v>0.6080318396333663</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.2526406544092415</v>
+        <v>-0.2588621937677016</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.03051607841499133</v>
+        <v>0.02366986220158856</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-1.208482758006808</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-3.901805316380486</v>
+        <v>-3.901805316380488</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>3.353831592035089</v>
@@ -2162,7 +2162,7 @@
         <v>1.054373485553747</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-2.312526462537803</v>
+        <v>-2.312526462537805</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.8967570206698739</v>
+        <v>1.058077831743078</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.08538004329375752</v>
+        <v>0.03437227619734941</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.418889482356154</v>
+        <v>-3.569417970120885</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.888958648354977</v>
+        <v>-1.893041222127015</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.872835596747536</v>
+        <v>-5.017977802257751</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-6.962353096233616</v>
+        <v>-7.589202888555778</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.6731018932227281</v>
+        <v>0.4760561229926789</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.459854008713542</v>
+        <v>-1.824434192864893</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-4.596430608140841</v>
+        <v>-4.640771289440901</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>8.406648986361215</v>
+        <v>8.307590872301503</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>7.246224809592955</v>
+        <v>7.35885118118544</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.661160980286872</v>
+        <v>2.409052651874526</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.531255532884963</v>
+        <v>5.79135756613169</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.616419203749019</v>
+        <v>2.54897120780659</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.6636748017363272</v>
+        <v>-0.6017663766430558</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>6.072276163690531</v>
+        <v>6.17967968806175</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.640817528797242</v>
+        <v>3.615126091234203</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.1703512894069581</v>
+        <v>-0.08601270128572365</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.0910986604030477</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.2941285137257618</v>
+        <v>-0.294128513725762</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.3076144547148994</v>
@@ -2267,7 +2267,7 @@
         <v>0.09670745710510037</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.2121056312060343</v>
+        <v>-0.2121056312060345</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.07492196099793853</v>
+        <v>0.07661211851238421</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.02082368086859096</v>
+        <v>-0.002166934634492137</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3487851701847526</v>
+        <v>-0.355839139096739</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1265357496534557</v>
+        <v>-0.1204052170010161</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3216564669546257</v>
+        <v>-0.3229582603390692</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.4469223512023549</v>
+        <v>-0.473794539454649</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.04660688827316608</v>
+        <v>0.03444309819034406</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1259752421907005</v>
+        <v>-0.1455119782127043</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3639401115341733</v>
+        <v>-0.3691895607937842</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.347086467816235</v>
+        <v>1.227339530875723</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.161186335515554</v>
+        <v>1.065274535542945</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4360478121399853</v>
+        <v>0.3794195268879324</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.6085087753514078</v>
+        <v>0.5157996322074876</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2461089840204721</v>
+        <v>0.2312477360059857</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.05096297265783717</v>
+        <v>-0.04695640560191919</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.6471903351806153</v>
+        <v>0.6534436311656289</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3735142522687754</v>
+        <v>0.3819268509109734</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.01720168730200112</v>
+        <v>-0.008556709574742324</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>-2.943121830219048</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-3.222131948542466</v>
+        <v>-3.222131948542463</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>2.099990169561461</v>
@@ -2376,7 +2376,7 @@
         <v>-3.773344243290153</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-3.686310056444345</v>
+        <v>-3.686310056444343</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.5997490917088869</v>
+        <v>-0.4939251958252591</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-4.640777391337469</v>
+        <v>-4.711588236716109</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-4.94411589485164</v>
+        <v>-4.870241963331526</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.01324393167449187</v>
+        <v>0.07263834672989408</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-6.299766986532764</v>
+        <v>-6.320563881317834</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-5.703055295794117</v>
+        <v>-5.817366852432634</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.5187726227143941</v>
+        <v>0.3253226008185416</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-5.139609574554042</v>
+        <v>-5.062301575753138</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-4.778791259759657</v>
+        <v>-4.844478864659163</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.452623990340822</v>
+        <v>3.331846078388609</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.9069342716405002</v>
+        <v>-1.158572905630521</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-1.522156343907222</v>
+        <v>-1.528044300255806</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.028284240483909</v>
+        <v>3.936531101314138</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-2.503412937691024</v>
+        <v>-2.613881188058371</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-2.452069943410273</v>
+        <v>-2.626051140878374</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>3.149959040294117</v>
+        <v>3.06229085505321</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-2.585399190797043</v>
+        <v>-2.360021585237063</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-2.522609130778654</v>
+        <v>-2.583477578886113</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>-0.2165313802265253</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.2370587146363412</v>
+        <v>-0.237058714636341</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.1301598446214244</v>
@@ -2472,7 +2472,7 @@
         <v>-0.2788971442786082</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.2519880283288629</v>
+        <v>-0.2519880283288628</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.1168461068219988</v>
@@ -2481,7 +2481,7 @@
         <v>-0.2526843499181399</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.246856051330516</v>
+        <v>-0.2468560513305159</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.0419414319453067</v>
+        <v>-0.03686085973869898</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.3256034781956105</v>
+        <v>-0.325717103103029</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.3411521087322494</v>
+        <v>-0.3328166640952088</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.0005661697928384188</v>
+        <v>0.003845386511009168</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3691416805238953</v>
+        <v>-0.3684535450994642</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.3297917662108486</v>
+        <v>-0.3409173647792048</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.03094505039443382</v>
+        <v>0.02171504758329745</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.3304034181044475</v>
+        <v>-0.3246287920798023</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.3049914876734451</v>
+        <v>-0.3066772562083208</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2712276718968802</v>
+        <v>0.2582628017085479</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.07667775064628281</v>
+        <v>-0.0948357729166855</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.1252149986371976</v>
+        <v>-0.1218344708510655</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2679429712914093</v>
+        <v>0.2554524615728237</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.1664488778885224</v>
+        <v>-0.1678645060254102</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.16416605299152</v>
+        <v>-0.1737729201002098</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.2212525877202754</v>
+        <v>0.2177721052961567</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.1789447651538925</v>
+        <v>-0.1646922608429473</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.1751561077281219</v>
+        <v>-0.179441234814034</v>
       </c>
     </row>
     <row r="58">
